--- a/biology/Botanique/Pulsatille_de_Haller/Pulsatille_de_Haller.xlsx
+++ b/biology/Botanique/Pulsatille_de_Haller/Pulsatille_de_Haller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulsatilla halleri
 La Pulsatille de Haller (Pulsatilla halleri), également appelée Anémone de Haller, est une espèce de plante à fleurs du genre des Pulsatilles et de la famille des Renonculacées.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plantes herbacées vivaces.
-Elle mesure de 6 à 20 centimètres[1]. Ses feuilles et sa tige sont entièrement velues. Les fleurs sont lilas à mauves. La floraison a lieu en juin-juillet.
+Elle mesure de 6 à 20 centimètres. Ses feuilles et sa tige sont entièrement velues. Les fleurs sont lilas à mauves. La floraison a lieu en juin-juillet.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve la plante en Europe, en France (dans le Massif du Vercors notamment), en Suisse, en Bosnie-Herzégovine...
 Cette anémone se rencontre dans les pelouses alpines et les rocailles.
@@ -576,7 +592,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante figurant sur le liste des espèces protégées sur l'ensemble du territoire français métropolitain. Elle est également sur la liste rouge des plantes de Suisse.
 </t>
